--- a/moyusi/Keywords/Web/全部员工模块.xlsx
+++ b/moyusi/Keywords/Web/全部员工模块.xlsx
@@ -193,17 +193,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-input__suffix-inner</t>
-  </si>
-  <si>
     <t>点击门店下拉列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>el-select-dropdown__item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-第一个门店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,91 +264,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>if_id包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF如果有该元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-第一个员工修改按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改员工</t>
+  </si>
+  <si>
+    <t>检查点-修改员工窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-新员工窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-员工微信号输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点-新员工按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-新员工按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-员工名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击-员工名称输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[2]/div/div/div[1]/input</t>
+  </si>
+  <si>
+    <t>点击-员工输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入-员工手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[3]/div/div/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[4]/div/div/div/input</t>
+  </si>
+  <si>
+    <t>输入_xpaths手机号</t>
+  </si>
+  <si>
+    <t>Dayu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dayu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class ='el-form-item__content']/div[1]/div[1]/input[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/body/div[4]/div[1]/div[1]/ul/li[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>el-table__row</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>if_id包含</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF如果有该元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>el-icon-edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-第一个员工修改按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改员工</t>
-  </si>
-  <si>
-    <t>检查点-修改员工窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-新员工窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-员工微信号输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查点-新员工按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-新员工按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-员工名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击-员工名称输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[2]/div/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>点击-员工输入框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入-员工手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[3]/div/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[4]/div/div/div/input</t>
-  </si>
-  <si>
-    <t>输入_xpaths手机号</t>
-  </si>
-  <si>
-    <t>Dayu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dayu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>//*[@class ='el-table__row']/td[9]/div[1]/button[1]/i[1]</t>
   </si>
 </sst>
 </file>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>32</v>
@@ -975,7 +975,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1000,7 +1000,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>32</v>
@@ -1065,27 +1065,27 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F20" s="14"/>
     </row>
@@ -1105,27 +1105,27 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D23" s="23">
         <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1133,38 +1133,38 @@
         <v>9</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="14"/>
     </row>
@@ -1187,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="28">
         <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1201,13 +1201,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="28">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1226,17 +1226,14 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="28">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,16 +1252,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="28">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1286,13 +1280,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F35" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1300,24 +1294,24 @@
         <v>22</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="28">
         <v>0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,39 +1334,36 @@
       </c>
       <c r="B39" s="17"/>
       <c r="D39" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="21" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="28">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1394,50 +1385,50 @@
         <v>9</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1460,24 +1451,24 @@
       </c>
       <c r="B48" s="17"/>
       <c r="D48" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="29"/>
       <c r="D49" s="21"/>
       <c r="E49" s="18" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/moyusi/Keywords/Web/全部员工模块.xlsx
+++ b/moyusi/Keywords/Web/全部员工模块.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,9 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[2]/div/div/div[1]/input</t>
-  </si>
-  <si>
     <t>点击-员工输入框</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,12 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[3]/div/div/div[1]/input</t>
-  </si>
-  <si>
-    <t>//*[@id="app"]/div[2]/div/div[2]/div[2]/div[5]/div/div[2]/div/div/div[1]/div/form/div/div[4]/div/div/div/input</t>
-  </si>
-  <si>
     <t>输入_xpaths手机号</t>
   </si>
   <si>
@@ -356,6 +347,20 @@
   </si>
   <si>
     <t>//*[@class ='el-table__row']/td[9]/div[1]/button[1]/i[1]</t>
+  </si>
+  <si>
+    <t>//*[@class='el-row']/div[4]/div[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@class='opeartion']/div/button[2]/span</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//*[@class='el-row']/div[3]/div[1]/div[1]/div[1]/input</t>
+  </si>
+  <si>
+    <t>//*[@class='el-row']/div[2]/div[1]/div[1]/div[1]/input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -786,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1073,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>76</v>
@@ -1076,10 +1081,10 @@
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>37</v>
@@ -1108,24 +1113,24 @@
         <v>54</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D23" s="23">
         <v>133</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,7 +1152,7 @@
         <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>70</v>
@@ -1155,13 +1160,13 @@
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>63</v>
@@ -1229,7 +1234,7 @@
         <v>54</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="1" t="s">
@@ -1255,7 +1260,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>47</v>
@@ -1349,7 +1354,7 @@
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E40" s="18" t="s">
         <v>65</v>
@@ -1360,7 +1365,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>66</v>
@@ -1399,7 +1404,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>70</v>
@@ -1407,13 +1412,13 @@
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>81</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>63</v>
@@ -1425,7 +1430,7 @@
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>55</v>
